--- a/biology/Zoologie/Tipula_minima/Tipula_minima.xlsx
+++ b/biology/Zoologie/Tipula_minima/Tipula_minima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tipula minima est une espèce fossile d'insectes diptères de la famille des Tipulidae, de la sous-famille des Tipulinae et du genre Tipula.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotypes R1018 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection Mieg conservée au musée d'histoire naturelle de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs[2].
-Étymologie
-L'épithète spécifique minima signifie en latin « petit ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
-« Diptère de petite taille, à longues ailes, corps jaune. Tête à deux gros yeux composés de facettes égales, yeux de forme ovale, presque contigus ; clypéus allongé ; antennes non visibles. Cou net. Thorax ovale, teinte brun jaunâtre, détails mal visibles. Abdomen ovoïde, allongé. Pattes manquent. Ailes à nervation de Tipula, stigma net, quelques taches mal délimitées dans la partie postérieure. »[1].
-Dimensions
-La longueur est de 6,5 mm, et les ailes ont une longueur totale de 8,2 mm[1].
-Affinités
-« L'échantillon appartient certainement aux Tipulidae. La nervation est identique à celle du g. Tipula. On voit très distinctement la cellule discoïdale, courte, d'où partent trois nervures, dont la première est bifurquée. Il en résulte que la quatrième cellule postérieure est pétiolée, ce qui est le cas dans le g. Tipula. Les espèces actuelles de ce genre ont une taille dépassant en général 10 mm. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotypes R1018 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection Mieg conservée au musée d'histoire naturelle de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs.
 </t>
         </is>
       </c>
@@ -580,13 +590,166 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique minima signifie en latin « petit ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tipula_minima</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_minima</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Diptère de petite taille, à longues ailes, corps jaune. Tête à deux gros yeux composés de facettes égales, yeux de forme ovale, presque contigus ; clypéus allongé ; antennes non visibles. Cou net. Thorax ovale, teinte brun jaunâtre, détails mal visibles. Abdomen ovoïde, allongé. Pattes manquent. Ailes à nervation de Tipula, stigma net, quelques taches mal délimitées dans la partie postérieure. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tipula_minima</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_minima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur est de 6,5 mm, et les ailes ont une longueur totale de 8,2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tipula_minima</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_minima</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'échantillon appartient certainement aux Tipulidae. La nervation est identique à celle du g. Tipula. On voit très distinctement la cellule discoïdale, courte, d'où partent trois nervures, dont la première est bifurquée. Il en résulte que la quatrième cellule postérieure est pétiolée, ce qui est le cas dans le g. Tipula. Les espèces actuelles de ce genre ont une taille dépassant en général 10 mm. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tipula_minima</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_minima</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les Tipules vivent dans les prairies, les marais, les bois humides. Un minimum d'humidité du sol est nécessaire au développement des larves. Ce genre est universellement répandu. »[3].
+« Les Tipules vivent dans les prairies, les marais, les bois humides. Un minimum d'humidité du sol est nécessaire au développement des larves. Ce genre est universellement répandu. ».
 </t>
         </is>
       </c>
